--- a/SuppXLS/Scen_UC-IND.xlsx
+++ b/SuppXLS/Scen_UC-IND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\EU_TIMES_Veda2p0\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888D0B08-BBC4-497F-8C0B-B220BCDBC026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B910A8-AEDB-4277-BD90-F624AD36B979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25110" windowHeight="15600" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="750" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHPShares" sheetId="27" r:id="rId1"/>

--- a/SuppXLS/Scen_UC-IND.xlsx
+++ b/SuppXLS/Scen_UC-IND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewVEDA\Veda_models\EU_TIMES_Veda2.0\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B910A8-AEDB-4277-BD90-F624AD36B979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD4E22-4885-42DD-AD4C-877A0D20DC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="750" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3390" windowWidth="15825" windowHeight="12210" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHPShares" sheetId="27" r:id="rId1"/>
@@ -21469,7 +21469,7 @@
       </c>
       <c r="H20" s="15">
         <f>-'FILL-IIS'!H28</f>
-        <v>0</v>
+        <v>-0.36241758241758243</v>
       </c>
       <c r="I20" s="15">
         <f>-'FILL-IIS'!I28</f>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="M20" s="15">
         <f>-'FILL-IIS'!M28</f>
-        <v>-0.20421052631578945</v>
+        <v>-0.30631578947368421</v>
       </c>
       <c r="N20" s="15">
         <f>-'FILL-IIS'!N28</f>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="AB20" s="15">
         <f>-'FILL-IIS'!AB28</f>
-        <v>-0.1531578947368421</v>
+        <v>-0.49010526315789477</v>
       </c>
       <c r="AC20" s="15">
         <f>-'FILL-IIS'!AC28</f>
@@ -21637,7 +21637,7 @@
       </c>
       <c r="H21" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.14496703296703298</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="12"/>
@@ -21657,7 +21657,7 @@
       </c>
       <c r="M21" s="15">
         <f t="shared" si="12"/>
-        <v>-8.168421052631579E-2</v>
+        <v>-0.12252631578947369</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="12"/>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="AB21" s="15">
         <f t="shared" si="12"/>
-        <v>-6.1263157894736846E-2</v>
+        <v>-0.19604210526315791</v>
       </c>
       <c r="AC21" s="15">
         <f t="shared" si="12"/>
@@ -21799,7 +21799,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-7.2483516483516489E-2</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="14"/>
@@ -21819,7 +21819,7 @@
       </c>
       <c r="M22" s="15">
         <f t="shared" si="14"/>
-        <v>-4.0842105263157895E-2</v>
+        <v>-6.1263157894736846E-2</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="14"/>
@@ -21879,7 +21879,7 @@
       </c>
       <c r="AB22" s="15">
         <f t="shared" si="14"/>
-        <v>-3.0631578947368423E-2</v>
+        <v>-9.8021052631578953E-2</v>
       </c>
       <c r="AC22" s="15">
         <f t="shared" si="14"/>
@@ -21967,7 +21967,7 @@
       </c>
       <c r="H23" s="15">
         <f>-'FILL-IIS'!H29</f>
-        <v>-0.36241758241758243</v>
+        <v>0</v>
       </c>
       <c r="I23" s="15">
         <f>-'FILL-IIS'!I29</f>
@@ -21987,7 +21987,7 @@
       </c>
       <c r="M23" s="15">
         <f>-'FILL-IIS'!M29</f>
-        <v>-0.20421052631578945</v>
+        <v>-0.10210526315789473</v>
       </c>
       <c r="N23" s="15">
         <f>-'FILL-IIS'!N29</f>
@@ -22047,7 +22047,7 @@
       </c>
       <c r="AB23" s="15">
         <f>-'FILL-IIS'!AB29</f>
-        <v>-0.33694736842105261</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="15">
         <f>-'FILL-IIS'!AC29</f>
@@ -22135,7 +22135,7 @@
       </c>
       <c r="H24" s="15">
         <f t="shared" si="16"/>
-        <v>-0.14496703296703298</v>
+        <v>0</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="16"/>
@@ -22155,7 +22155,7 @@
       </c>
       <c r="M24" s="15">
         <f t="shared" si="16"/>
-        <v>-8.168421052631579E-2</v>
+        <v>-4.0842105263157895E-2</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="16"/>
@@ -22215,7 +22215,7 @@
       </c>
       <c r="AB24" s="15">
         <f t="shared" si="16"/>
-        <v>-0.13477894736842105</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="15">
         <f t="shared" si="16"/>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="H25" s="15">
         <f t="shared" si="18"/>
-        <v>-7.2483516483516489E-2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="18"/>
@@ -22317,7 +22317,7 @@
       </c>
       <c r="M25" s="15">
         <f t="shared" si="18"/>
-        <v>-4.0842105263157895E-2</v>
+        <v>-2.0421052631578947E-2</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="18"/>
@@ -22377,7 +22377,7 @@
       </c>
       <c r="AB25" s="15">
         <f t="shared" si="18"/>
-        <v>-6.7389473684210527E-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="15">
         <f t="shared" si="18"/>
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="35">
-        <v>1.3418559000000001</v>
+        <v>2.4397380000000002</v>
       </c>
       <c r="I5" s="35">
         <v>0</v>
@@ -23644,7 +23644,7 @@
         <v>3.66377252991288</v>
       </c>
       <c r="M5" s="35">
-        <v>12.228569999999999</v>
+        <v>14.003685000000001</v>
       </c>
       <c r="N5" s="35">
         <v>0</v>
@@ -23689,7 +23689,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="35">
-        <v>1.9843258500000001</v>
+        <v>2.8732319999999998</v>
       </c>
       <c r="AC5" s="35">
         <v>0</v>
@@ -24135,7 +24135,7 @@
       </c>
       <c r="H9" s="23">
         <f t="shared" ref="H9:AJ9" si="0">SUM(H5:H7)</f>
-        <v>1.3418559000000001</v>
+        <v>2.4397380000000002</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="0"/>
@@ -24155,7 +24155,7 @@
       </c>
       <c r="M9" s="23">
         <f t="shared" si="0"/>
-        <v>12.228569999999999</v>
+        <v>14.003685000000001</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="0"/>
@@ -24215,7 +24215,7 @@
       </c>
       <c r="AB9" s="23">
         <f t="shared" si="0"/>
-        <v>1.9843258500000001</v>
+        <v>2.8732319999999998</v>
       </c>
       <c r="AC9" s="23">
         <f t="shared" si="0"/>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="35">
-        <v>0</v>
+        <v>2.71082</v>
       </c>
       <c r="I10" s="35">
         <v>0</v>
@@ -24314,7 +24314,7 @@
         <v>3.2943362504033602</v>
       </c>
       <c r="M10" s="35">
-        <v>8.766</v>
+        <v>13.148999999999999</v>
       </c>
       <c r="N10" s="35">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="35">
-        <v>0.99765000000000004</v>
+        <v>3.1924800000000002</v>
       </c>
       <c r="AC10" s="35">
         <v>0</v>
@@ -24428,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="35">
-        <v>2.71082</v>
+        <v>0</v>
       </c>
       <c r="I11" s="35">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>1.4118583930300099</v>
       </c>
       <c r="M11" s="35">
-        <v>8.766</v>
+        <v>4.383</v>
       </c>
       <c r="N11" s="35">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="35">
-        <v>2.1948300000000001</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="35">
         <v>0.30840000000000001</v>
@@ -25978,7 +25978,7 @@
       </c>
       <c r="H28" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.36241758241758243</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="11"/>
@@ -25998,7 +25998,7 @@
       </c>
       <c r="M28" s="24">
         <f t="shared" si="11"/>
-        <v>0.20421052631578945</v>
+        <v>0.30631578947368421</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="11"/>
@@ -26058,7 +26058,7 @@
       </c>
       <c r="AB28" s="24">
         <f t="shared" si="11"/>
-        <v>0.1531578947368421</v>
+        <v>0.49010526315789477</v>
       </c>
       <c r="AC28" s="24">
         <f t="shared" si="11"/>
@@ -26131,7 +26131,7 @@
       </c>
       <c r="H29" s="24">
         <f t="shared" si="13"/>
-        <v>0.36241758241758243</v>
+        <v>0</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="13"/>
@@ -26151,7 +26151,7 @@
       </c>
       <c r="M29" s="24">
         <f t="shared" si="13"/>
-        <v>0.20421052631578945</v>
+        <v>0.10210526315789473</v>
       </c>
       <c r="N29" s="24">
         <f t="shared" si="13"/>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="AB29" s="24">
         <f t="shared" si="13"/>
-        <v>0.33694736842105261</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="24">
         <f t="shared" si="13"/>
